--- a/public/assets/Exenciones/Solicitudes/2025/SOLICITUD_E2.xlsx
+++ b/public/assets/Exenciones/Solicitudes/2025/SOLICITUD_E2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isis tecnologia\Documents\AGENDAS\2025\AGENDAS PLANIFICADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D36153E-B5F5-46F8-A4B2-A2E9230BC1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D578E91-F549-4D8C-BF8D-2015A2644527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>Desarrollo de Adecuaciones, pagina web http://seta.gob.ve/.</t>
   </si>
   <si>
-    <t>AGENDA CORRESPONDIENTE A LA SEMANA:20/01/2025 al 24/01/2025</t>
+    <t>AGENDA CORRESPONDIENTE A LA SEMANA:13/01/2025 al 17/01/2025</t>
   </si>
 </sst>
 </file>
@@ -334,6 +334,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,29 +364,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,40 +752,40 @@
   <sheetData>
     <row r="1" spans="2:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -824,19 +824,19 @@
         <v>24</v>
       </c>
       <c r="E7" s="19">
-        <v>45677</v>
-      </c>
-      <c r="F7" s="15" t="s">
+        <v>45670</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="11" t="s">
         <v>41</v>
       </c>
@@ -844,13 +844,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -858,13 +858,13 @@
         <v>0.375</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
@@ -872,13 +872,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
@@ -886,13 +886,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
@@ -900,13 +900,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
@@ -914,13 +914,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -930,19 +930,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E14" s="19">
-        <v>45678</v>
-      </c>
-      <c r="F14" s="15" t="s">
+        <v>45671</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
@@ -950,13 +950,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -964,13 +964,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
@@ -978,13 +978,13 @@
         <v>0.375</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
@@ -992,13 +992,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
@@ -1006,13 +1006,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1020,13 +1020,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1036,19 +1036,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E21" s="19">
-        <v>45679</v>
-      </c>
-      <c r="F21" s="15" t="s">
+        <v>45672</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="11" t="s">
         <v>41</v>
       </c>
@@ -1056,13 +1056,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
@@ -1070,13 +1070,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="16"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -1084,13 +1084,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="16"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -1098,13 +1098,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="11" t="s">
         <v>39</v>
       </c>
@@ -1112,13 +1112,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="16"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="11" t="s">
         <v>40</v>
       </c>
@@ -1126,13 +1126,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="16"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
         <v>26</v>
       </c>
@@ -1140,13 +1140,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -1156,19 +1156,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E29" s="19">
-        <v>45680</v>
-      </c>
-      <c r="F29" s="15" t="s">
+        <v>45673</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
         <v>41</v>
       </c>
@@ -1176,13 +1176,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="16"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1190,13 +1190,13 @@
         <v>0.375</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="16"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="11" t="s">
         <v>14</v>
       </c>
@@ -1204,13 +1204,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="16"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1218,13 +1218,13 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="16"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
@@ -1232,13 +1232,13 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="10" t="s">
         <v>33</v>
       </c>
@@ -1246,13 +1246,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="16"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="11" t="s">
         <v>26</v>
       </c>
@@ -1260,13 +1260,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="16"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -1276,19 +1276,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E37" s="19">
-        <v>45681</v>
-      </c>
-      <c r="F37" s="15" t="s">
+        <v>45674</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="2:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="11" t="s">
         <v>41</v>
       </c>
@@ -1296,13 +1296,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E38" s="20"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="16"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
         <v>14</v>
       </c>
@@ -1310,13 +1310,13 @@
         <v>0.375</v>
       </c>
       <c r="E39" s="20"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="16"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1324,13 +1324,13 @@
         <v>36</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="16"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="3" t="s">
         <v>28</v>
       </c>
@@ -1338,13 +1338,13 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="16"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="10" t="s">
         <v>34</v>
       </c>
@@ -1352,13 +1352,13 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="16"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="11" t="s">
         <v>35</v>
       </c>
@@ -1366,13 +1366,13 @@
         <v>0.5625</v>
       </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="16"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="11" t="s">
         <v>37</v>
       </c>
@@ -1380,13 +1380,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="16"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="3" t="s">
         <v>19</v>
       </c>
@@ -1394,13 +1394,13 @@
         <v>0.625</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="16"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="11" t="s">
         <v>26</v>
       </c>
@@ -1408,9 +1408,9 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E46" s="20"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="16"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,30 +1438,30 @@
       <c r="I48" s="3"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
     </row>
     <row r="59" spans="2:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="2:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1472,6 +1472,28 @@
     <row r="65" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H29:H36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="E37:E46"/>
+    <mergeCell ref="F37:F46"/>
+    <mergeCell ref="G37:G46"/>
+    <mergeCell ref="H37:H46"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="H14:H20"/>
+    <mergeCell ref="G14:G20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
@@ -1480,28 +1502,6 @@
     <mergeCell ref="F7:F13"/>
     <mergeCell ref="G7:G13"/>
     <mergeCell ref="H7:H13"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="H14:H20"/>
-    <mergeCell ref="G14:G20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="E37:E46"/>
-    <mergeCell ref="F37:F46"/>
-    <mergeCell ref="G37:G46"/>
-    <mergeCell ref="H37:H46"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="H29:H36"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="B29:B36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43333333333333302" right="0.23611111111111099" top="0.74861111111111101" bottom="0.74791666666666701" header="0.31527777777777799" footer="0.51180555555555496"/>
